--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_gas.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_gas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archivos Compu DELL\UTILIDADES DESCARGA\Para MASIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57EC426-E0B4-4BAD-B31C-5DA676D205CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7727158-0CA5-4E52-B16A-883753903A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>Año</t>
   </si>
@@ -648,7 +648,7 @@
   <dimension ref="A1:N311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,38 +996,54 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="e">
+      <c r="A8" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>150</v>
+      </c>
+      <c r="D8" s="12">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="e">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="12">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="12">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="12">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="15" t="e">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="13">
+        <v>256969</v>
+      </c>
+      <c r="M8" s="15">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -9542,7 +9558,7 @@
       </c>
       <c r="E259" s="12"/>
       <c r="F259" s="12" t="e">
-        <f t="shared" ref="F259:F322" si="26">VLOOKUP(G259,Tabla_EnerBAU,2,)</f>
+        <f t="shared" ref="F259:F311" si="26">VLOOKUP(G259,Tabla_EnerBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G259" s="12"/>
@@ -9552,13 +9568,13 @@
       </c>
       <c r="I259" s="12"/>
       <c r="J259" s="12" t="e">
-        <f t="shared" ref="J259:J322" si="28">VLOOKUP(K259,Tabla_EnerINI,2,)</f>
+        <f t="shared" ref="J259:J311" si="28">VLOOKUP(K259,Tabla_EnerINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="K259" s="12"/>
       <c r="L259" s="13"/>
       <c r="M259" s="15" t="e">
-        <f t="shared" ref="M259:M322" si="29">VLOOKUP(N259,Tabla_Mes,2,)</f>
+        <f t="shared" ref="M259:M311" si="29">VLOOKUP(N259,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="N259" s="15"/>
@@ -11332,7 +11348,7 @@
       <c r="N311" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5g6ZxzMmg80fuIi4wQ+GQIsELHGKJzW0DCf57Yh2+xYviIbeqxUx0i2UA/sQdGl0fpQabsKaJcw6Hw5gywmpUg==" saltValue="a63oeYdO8C6oG6rX+EA0HA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{ECE28117-C8FA-4388-B6C8-4DC009C7D8F9}">

--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_gas.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_gas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archivos Compu DELL\UTILIDADES DESCARGA\Para MASIVOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Nuevas  Plantillas con alfonso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7727158-0CA5-4E52-B16A-883753903A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07EA0F7-A60F-478E-8574-ED83966BC5EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -46,8 +46,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dell</author>
+  </authors>
+  <commentList>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{DDB9A472-6C05-4E22-A021-A4F6C8C07ABF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Año</t>
   </si>
@@ -94,43 +128,10 @@
     <t>G</t>
   </si>
   <si>
-    <t>Año al que corresponde el registro</t>
-  </si>
-  <si>
-    <t>Etiquetado (A, B, C, etc.) antes de la implementación</t>
-  </si>
-  <si>
-    <t>Etiquetado (A, B, C, etc.) posterior a la implementación</t>
-  </si>
-  <si>
-    <t>Numero de unidades de este tipo o clase</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capacidad Calentador </t>
   </si>
   <si>
-    <t>Capacidad calentador gas (L)</t>
-  </si>
-  <si>
-    <t>Capacidad del calentador</t>
-  </si>
-  <si>
-    <t>Energetico usado antes de la implementación de la iniciativa</t>
-  </si>
-  <si>
-    <t>Energético (Inic)</t>
-  </si>
-  <si>
     <t>Energético BAU</t>
-  </si>
-  <si>
-    <t>Mes de Inicio de Operaciones</t>
-  </si>
-  <si>
-    <t>Energetico implementando la iniciativa</t>
-  </si>
-  <si>
-    <t>Mes en que se adquirio el artefacto</t>
   </si>
   <si>
     <t>EnerBAU</t>
@@ -189,12 +190,46 @@
   <si>
     <t>Diciembre</t>
   </si>
+  <si>
+    <t>Capacidad (L)</t>
+  </si>
+  <si>
+    <t>Energético iniciativa</t>
+  </si>
+  <si>
+    <t>Etiqueta del equipo anterior o reemplazado. Seleccione de lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta del equipo nuevo. Seleccione de lista desplegable.</t>
+  </si>
+  <si>
+    <t>Número de unidades de este equipo. Inserte su dato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mes en que se compró el equipo. Seleccione de la lista desplegable.
+</t>
+  </si>
+  <si>
+    <t>Año en que se compró el equipo. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Energético que se consumía anteriormente. Seleccione de lista desplegable.</t>
+  </si>
+  <si>
+    <t>Energético que se consume en la iniciativa. Seleccione de lista desplegable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mes de Inicio </t>
+  </si>
+  <si>
+    <t>Capacidad de los calentadores de agua a gas. Seleccione de la lista desplegable.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +258,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -330,6 +384,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,18 +716,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
   <dimension ref="A1:N311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
@@ -677,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -689,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
@@ -701,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>4</v>
@@ -710,340 +782,260 @@
         <v>1</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="10" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
+      <c r="N2" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="17">
         <v>2015</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="17">
         <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_Capacidad,2,)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="18">
         <v>30</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="17">
         <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_BAU,2,)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F66" si="2">VLOOKUP(G3,Tabla_EnerBAU,2,)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="17">
         <f t="shared" ref="H3:H66" si="3">VLOOKUP(I3,Tabla_Iniciativa,2,)</f>
         <v>2</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="17">
         <f t="shared" ref="J3:J66" si="4">VLOOKUP(K3,Tabla_EnerINI,2,)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="K3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="19">
         <v>10625</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="20">
         <f t="shared" ref="M3:M66" si="5">VLOOKUP(N3,Tabla_Mes,2,)</f>
         <v>6</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>40</v>
+      <c r="N3" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C4" s="16">
-        <v>150</v>
-      </c>
-      <c r="D4" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="13">
-        <v>10625</v>
-      </c>
-      <c r="M4" s="15">
+        <v>#N/A</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="15" t="e">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>30</v>
-      </c>
-      <c r="D5" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="13">
-        <v>10625</v>
-      </c>
-      <c r="M5" s="15">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="15" t="e">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="12">
-        <v>150</v>
-      </c>
-      <c r="D6" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="13">
-        <v>10625</v>
-      </c>
-      <c r="M6" s="15">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="15" t="e">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>30</v>
-      </c>
-      <c r="D7" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="13">
-        <v>10625</v>
-      </c>
-      <c r="M7" s="15">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="15" t="e">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C8" s="12">
-        <v>150</v>
-      </c>
-      <c r="D8" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="13">
-        <v>256969</v>
-      </c>
-      <c r="M8" s="15">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="15" t="e">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -11348,7 +11340,7 @@
       <c r="N311" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5g6ZxzMmg80fuIi4wQ+GQIsELHGKJzW0DCf57Yh2+xYviIbeqxUx0i2UA/sQdGl0fpQabsKaJcw6Hw5gywmpUg==" saltValue="a63oeYdO8C6oG6rX+EA0HA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XF/o3ZgSiMuh6DbpwqfWue1tmiHGA+kIWxXELKjum4kDoQ+SBWWO7kVLoAkOCttM45OcMFjLNwLeuJxwMFWf1g==" saltValue="wbFN6GoUOqNgdmSbVezSiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{ECE28117-C8FA-4388-B6C8-4DC009C7D8F9}">
@@ -11383,6 +11375,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11423,7 +11416,7 @@
         <v>2012</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -11441,22 +11434,22 @@
         <v>5</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -11482,19 +11475,19 @@
         <v>1</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7">
         <v>1</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="S8" s="7">
         <v>1</v>
@@ -11523,19 +11516,19 @@
         <v>2</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7">
         <v>2</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="S9" s="7">
         <v>2</v>
@@ -11560,7 +11553,7 @@
         <v>3</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="S10" s="7">
         <v>3</v>
@@ -11585,7 +11578,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="S11" s="7">
         <v>4</v>
@@ -11610,7 +11603,7 @@
         <v>5</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="S12" s="7">
         <v>5</v>
@@ -11633,7 +11626,7 @@
         <v>6</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="S13" s="7">
         <v>6</v>
@@ -11656,7 +11649,7 @@
         <v>7</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="S14" s="7">
         <v>7</v>
@@ -11667,7 +11660,7 @@
         <v>2020</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="S15" s="7">
         <v>8</v>
@@ -11678,7 +11671,7 @@
         <v>2021</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="S16" s="7">
         <v>9</v>
@@ -11689,7 +11682,7 @@
         <v>2022</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="S17" s="7">
         <v>10</v>
@@ -11700,7 +11693,7 @@
         <v>2023</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="S18" s="7">
         <v>11</v>
@@ -11711,7 +11704,7 @@
         <v>2024</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="S19" s="7">
         <v>12</v>

--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_gas.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_gas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Nuevas  Plantillas con alfonso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07EA0F7-A60F-478E-8574-ED83966BC5EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6B2EA53-FC35-43D7-B018-6091372D4CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +270,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -342,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -400,7 +408,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,7 +731,7 @@
   <dimension ref="A1:N311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +746,7 @@
     <col min="8" max="8" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
     <col min="12" max="12" width="24.28515625" customWidth="1"/>
     <col min="13" max="13" width="14.140625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="33.85546875" customWidth="1"/>
@@ -786,34 +797,34 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="21" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="21" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="22" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -11340,7 +11351,7 @@
       <c r="N311" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XF/o3ZgSiMuh6DbpwqfWue1tmiHGA+kIWxXELKjum4kDoQ+SBWWO7kVLoAkOCttM45OcMFjLNwLeuJxwMFWf1g==" saltValue="wbFN6GoUOqNgdmSbVezSiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g0vhjg/vxYquBv4cQDg5yx9q6uLC1OQv6ACZSc+9uWfrL75LmqZkqYgjWTs1si9Mv+pfeDMUhOTDKi9O9bkl+g==" saltValue="SGUmpsSIteYGUhUFzG0f2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{ECE28117-C8FA-4388-B6C8-4DC009C7D8F9}">
